--- a/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
+++ b/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\ccs\BFoCPAbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/zzz_ccs/BFoCPAbS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761A94E6-8C64-4FAE-93AD-B64E443CE98C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB034F63-3815-6D4B-A3A8-38504CE1DA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12915" yWindow="255" windowWidth="33360" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="33360" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Global CCS Database'!$A$7:$K$36</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="186">
   <si>
     <t>Source:</t>
   </si>
@@ -608,6 +608,15 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>Mexico notes</t>
+  </si>
+  <si>
+    <t>There are no connsiderationns for CCS in BAU.</t>
+  </si>
+  <si>
+    <t>SWITCHED TO CERO FOR MEXICO, used to be MAX of (0 vs prev. Table)</t>
   </si>
 </sst>
 </file>
@@ -715,7 +724,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -779,11 +788,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -806,7 +816,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -862,7 +872,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1016,94 +1026,94 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4427953162471533E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2547612516376652E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.903541461259452E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5431620761818532E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.206071428754822E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6539824046691416E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1648581638994864E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7209866605924739E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.4190946236962363E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.1789810044871694E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.8327920437123045E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.4262901331617814E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.94212200981902E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.5178126618330654E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.1454223276793197E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.8005002244105598E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0437478070828638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1112481538301917E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1709250775859183E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2316690109345635E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2990014970808646E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3606276195386973E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.419933058413949E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.476660448394294E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.5413661768696327E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.5912520573667956E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.6395733503759218E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.6915756275758358E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.7486588022043854E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.7960634496096167E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1253,100 +1263,100 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>2.9182108865941562E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8914269191846176E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0257316867589659E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8321964087749535E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8291630123311092E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0448749317621778E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3655464205009857E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5776986708849438E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7108406909585365E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7969499643357913E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.7724257236320916E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.6910778738336852E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.6788761558897492E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.705556481944676E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.7536833017398322E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.8017754291254017E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8125842513037677E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.8042857996880486E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8112349762478392E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.8310192152978071E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8419952029945608E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.8550182700330155E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.8375825422887889E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.8692524327924669E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.8639876352395673E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8746066582347844E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.9108330074305829E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.9210633923920171E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.992380257109289E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.0295886941254357E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.0404390225600795E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.0599127118766945E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1496,100 +1506,100 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>3.7571423528284472E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0256778809263918E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8992170162877359E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7654788981551679E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7273389051629899E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6627155225392206E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5994076679461877E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.539402577350199E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.538435963808212E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5043651689621435E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4955765707220827E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5256592272890756E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5273535615617893E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.51025985346432E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5210601935874168E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.4832127845597829E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.4751781320334456E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.4783826687832665E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.437377442498904E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.4285109447733616E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.4142127489912031E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.3956012151238712E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.3767016650085324E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.3666686249079251E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.3564681845111382E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.3452324824319165E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.3315296863890244E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.3328636008795182E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.3076637904051109E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.2884790673961646E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.2761149234730338E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.273890612503186E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1739,100 +1749,100 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>9.0928820316613142E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4176416644885193E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6867376557302197E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9451002636904396E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2025745853115293E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4468126304820044E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6849784180498631E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9322833599149389E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1707958738242475E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4001715974451049E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.630014566846855E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8489909981053477E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0875499505410237E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.3203970579441489E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5520299613058965E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.7772471351148878E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.9934770220508476E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.2155124240956675E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.4326535478669648E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.6464995921581863E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.8524608884321115E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0523841430292803E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.252390318527018E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.4399550216782536E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.631237581074495E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.8128017050560527E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.9927178604055312E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.1616122003225646E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.3368586279656214E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.5067420484611819E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.6602250612565925E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.8301342058756621E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1982,100 +1992,100 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>5.6922487755766443E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.114853314710661E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9380294079138446E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7491044602492658E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7054650999851624E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6208851027952214E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5378230949606706E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.459359744055986E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.471721725966662E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4327553128072421E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.4328156476411163E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.493372947515715E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.509822460295101E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.4968642501330336E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.5275618704327865E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.4817835800896622E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.48274415051479E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5014177364536877E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.4500210739396829E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.449385671249448E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.4400262632869054E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.4236653690166989E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.4066975818146908E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.4038133771692455E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.4005812657728872E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.3955994886822678E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.3865408472086734E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.4017456933824412E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.3738525142772726E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.355558084885359E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.3482480149176122E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.3574340789028924E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2137,7 +2147,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2086371983"/>
@@ -2193,7 +2203,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2095671583"/>
@@ -2232,7 +2242,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2273,7 +2283,7 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2287,7 +2297,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2349,7 +2359,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3657,7 +3667,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1719908479"/>
@@ -3716,7 +3726,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2086375631"/>
@@ -3758,7 +3768,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3795,7 +3805,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3809,7 +3819,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3871,7 +3881,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4019,7 +4029,7 @@
             <c:numRef>
               <c:f>'BAU Calculations'!$B$33:$AH$33</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4031,94 +4041,94 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>467777.77777767181</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1044444.444444418</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1621111.1111109257</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2197777.7777776718</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2774444.444444418</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3351111.1111109257</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3927777.7777776718</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4504444.444444418</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5081111.1111109257</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5657777.7777776718</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6234444.444444418</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6811111.1111109257</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7387777.7777776718</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7964444.444444418</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8541111.1111109257</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9117777.7777776718</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9694444.444444418</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10271111.111110926</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10847777.777777672</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11424444.444444418</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12001111.111110926</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12577777.777777672</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13154444.444444418</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13731111.111110926</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>14307777.777777672</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14884444.444444418</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15461111.111110926</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16037777.777777672</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>16614444.444444418</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17191111.111110926</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4268,106 +4278,106 @@
             <c:numRef>
               <c:f>'BAU Calculations'!$B$34:$AH$34</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1400000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4517,106 +4527,106 @@
             <c:numRef>
               <c:f>'BAU Calculations'!$B$35:$AH$35</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1490000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4766,106 +4776,106 @@
             <c:numRef>
               <c:f>'BAU Calculations'!$B$36:$AH$36</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>1325000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2262500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3200000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4137500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5075000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6012500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6950000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7887500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8825000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9762500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10700000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11637500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12575000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13512500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14450000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15387500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16325000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17262500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18200000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19137500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20075000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21012500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21950000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>22887500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23825000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>24762500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>25700000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>26637500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>27575000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>28512500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>29450000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>30387500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>31325000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5015,106 +5025,106 @@
             <c:numRef>
               <c:f>'BAU Calculations'!$B$37:$AH$37</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>22515873.015873015</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22574206.349206343</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22632539.682539687</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22690873.015873015</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22749206.349206343</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22807539.682539687</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22865873.015873015</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22924206.349206343</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22982539.682539687</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23040873.015873015</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23099206.349206343</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23157539.682539687</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23215873.015873015</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23274206.349206343</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23332539.682539687</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23390873.015873015</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23449206.349206343</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23507539.682539687</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23565873.015873015</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23624206.349206343</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23682539.682539687</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23740873.015873015</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23799206.349206343</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23857539.682539687</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23915873.015873015</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23974206.349206343</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>24032539.682539687</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>24090873.015873015</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>24149206.349206343</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24207539.682539687</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>24265873.015873015</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>24324206.349206343</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>24382539.682539687</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5179,7 +5189,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1791667823"/>
@@ -5210,7 +5220,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5238,7 +5248,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1947137231"/>
@@ -5280,7 +5290,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5317,7 +5327,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7432,22 +7442,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="103.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="103.5" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7455,83 +7467,87 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="31">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
@@ -7550,46 +7566,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="86.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="37.5703125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="86.5" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="37.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -7624,7 +7640,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
@@ -7657,7 +7673,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
@@ -7693,7 +7709,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
@@ -7726,7 +7742,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>31</v>
       </c>
@@ -7759,7 +7775,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -7795,7 +7811,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>36</v>
       </c>
@@ -7828,7 +7844,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
@@ -7860,7 +7876,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>43</v>
       </c>
@@ -7896,7 +7912,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
@@ -7928,7 +7944,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>50</v>
       </c>
@@ -7961,7 +7977,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>52</v>
       </c>
@@ -7997,7 +8013,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>54</v>
       </c>
@@ -8030,7 +8046,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>57</v>
       </c>
@@ -8063,7 +8079,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>59</v>
       </c>
@@ -8097,7 +8113,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>61</v>
       </c>
@@ -8130,7 +8146,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>63</v>
       </c>
@@ -8163,7 +8179,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>65</v>
       </c>
@@ -8197,7 +8213,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>67</v>
       </c>
@@ -8230,7 +8246,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>70</v>
       </c>
@@ -8262,7 +8278,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>74</v>
       </c>
@@ -8295,7 +8311,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>76</v>
       </c>
@@ -8328,7 +8344,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>78</v>
       </c>
@@ -8360,7 +8376,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>81</v>
       </c>
@@ -8394,7 +8410,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>83</v>
       </c>
@@ -8427,7 +8443,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>85</v>
       </c>
@@ -8463,7 +8479,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>88</v>
       </c>
@@ -8496,7 +8512,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>90</v>
       </c>
@@ -8527,7 +8543,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>92</v>
       </c>
@@ -8560,7 +8576,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>94</v>
       </c>
@@ -8604,15 +8620,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB5266F-BD5E-4822-BA8F-3811C6ED8EBD}">
   <dimension ref="A1:AH120"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.5" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
@@ -8650,7 +8668,7 @@
       <c r="AG1" s="7"/>
       <c r="AH1" s="7"/>
     </row>
-    <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="33">
         <v>2018</v>
@@ -8752,7 +8770,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>116</v>
       </c>
@@ -8889,7 +8907,7 @@
         <v>6400000</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>117</v>
       </c>
@@ -9026,7 +9044,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>164</v>
       </c>
@@ -9163,7 +9181,7 @@
         <v>1490000</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>165</v>
       </c>
@@ -9300,7 +9318,7 @@
         <v>7575000</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>178</v>
       </c>
@@ -9437,63 +9455,66 @@
         <v>23138095.238095239</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
     </row>
-    <row r="17" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
     </row>
-    <row r="18" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
     </row>
-    <row r="27" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
-    </row>
-    <row r="32" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="33">
         <v>2018</v>
@@ -9595,740 +9616,575 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="33" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="25">
-        <f t="shared" ref="B33:AH33" si="0">MAX(0,TREND($B3:$J3,$B$2:$J$2,B$32))</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="25">
-        <f t="shared" si="0"/>
-        <v>467777.77777767181</v>
-      </c>
-      <c r="F33" s="25">
-        <f t="shared" si="0"/>
-        <v>1044444.444444418</v>
-      </c>
-      <c r="G33" s="25">
-        <f t="shared" si="0"/>
-        <v>1621111.1111109257</v>
-      </c>
-      <c r="H33" s="25">
-        <f t="shared" si="0"/>
-        <v>2197777.7777776718</v>
-      </c>
-      <c r="I33" s="25">
-        <f t="shared" si="0"/>
-        <v>2774444.444444418</v>
-      </c>
-      <c r="J33" s="25">
-        <f t="shared" si="0"/>
-        <v>3351111.1111109257</v>
-      </c>
-      <c r="K33" s="25">
-        <f t="shared" si="0"/>
-        <v>3927777.7777776718</v>
-      </c>
-      <c r="L33" s="25">
-        <f t="shared" si="0"/>
-        <v>4504444.444444418</v>
-      </c>
-      <c r="M33" s="25">
-        <f t="shared" si="0"/>
-        <v>5081111.1111109257</v>
-      </c>
-      <c r="N33" s="25">
-        <f t="shared" si="0"/>
-        <v>5657777.7777776718</v>
-      </c>
-      <c r="O33" s="25">
-        <f t="shared" si="0"/>
-        <v>6234444.444444418</v>
-      </c>
-      <c r="P33" s="25">
-        <f t="shared" si="0"/>
-        <v>6811111.1111109257</v>
-      </c>
-      <c r="Q33" s="25">
-        <f t="shared" si="0"/>
-        <v>7387777.7777776718</v>
-      </c>
-      <c r="R33" s="25">
-        <f t="shared" si="0"/>
-        <v>7964444.444444418</v>
-      </c>
-      <c r="S33" s="25">
-        <f t="shared" si="0"/>
-        <v>8541111.1111109257</v>
-      </c>
-      <c r="T33" s="25">
-        <f t="shared" si="0"/>
-        <v>9117777.7777776718</v>
-      </c>
-      <c r="U33" s="25">
-        <f t="shared" si="0"/>
-        <v>9694444.444444418</v>
-      </c>
-      <c r="V33" s="25">
-        <f t="shared" si="0"/>
-        <v>10271111.111110926</v>
-      </c>
-      <c r="W33" s="25">
-        <f t="shared" si="0"/>
-        <v>10847777.777777672</v>
-      </c>
-      <c r="X33" s="25">
-        <f t="shared" si="0"/>
-        <v>11424444.444444418</v>
-      </c>
-      <c r="Y33" s="25">
-        <f t="shared" si="0"/>
-        <v>12001111.111110926</v>
-      </c>
-      <c r="Z33" s="25">
-        <f t="shared" si="0"/>
-        <v>12577777.777777672</v>
-      </c>
-      <c r="AA33" s="25">
-        <f t="shared" si="0"/>
-        <v>13154444.444444418</v>
-      </c>
-      <c r="AB33" s="25">
-        <f t="shared" si="0"/>
-        <v>13731111.111110926</v>
-      </c>
-      <c r="AC33" s="25">
-        <f t="shared" si="0"/>
-        <v>14307777.777777672</v>
-      </c>
-      <c r="AD33" s="25">
-        <f t="shared" si="0"/>
-        <v>14884444.444444418</v>
-      </c>
-      <c r="AE33" s="25">
-        <f t="shared" si="0"/>
-        <v>15461111.111110926</v>
-      </c>
-      <c r="AF33" s="25">
-        <f t="shared" si="0"/>
-        <v>16037777.777777672</v>
-      </c>
-      <c r="AG33" s="25">
-        <f t="shared" si="0"/>
-        <v>16614444.444444418</v>
-      </c>
-      <c r="AH33" s="25">
-        <f t="shared" si="0"/>
-        <v>17191111.111110926</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="35">
+        <v>0</v>
+      </c>
+      <c r="C33" s="35">
+        <v>0</v>
+      </c>
+      <c r="D33" s="35">
+        <v>0</v>
+      </c>
+      <c r="E33" s="35">
+        <v>0</v>
+      </c>
+      <c r="F33" s="35">
+        <v>0</v>
+      </c>
+      <c r="G33" s="35">
+        <v>0</v>
+      </c>
+      <c r="H33" s="35">
+        <v>0</v>
+      </c>
+      <c r="I33" s="35">
+        <v>0</v>
+      </c>
+      <c r="J33" s="35">
+        <v>0</v>
+      </c>
+      <c r="K33" s="35">
+        <v>0</v>
+      </c>
+      <c r="L33" s="35">
+        <v>0</v>
+      </c>
+      <c r="M33" s="35">
+        <v>0</v>
+      </c>
+      <c r="N33" s="35">
+        <v>0</v>
+      </c>
+      <c r="O33" s="35">
+        <v>0</v>
+      </c>
+      <c r="P33" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="35">
+        <v>0</v>
+      </c>
+      <c r="R33" s="35">
+        <v>0</v>
+      </c>
+      <c r="S33" s="35">
+        <v>0</v>
+      </c>
+      <c r="T33" s="35">
+        <v>0</v>
+      </c>
+      <c r="U33" s="35">
+        <v>0</v>
+      </c>
+      <c r="V33" s="35">
+        <v>0</v>
+      </c>
+      <c r="W33" s="35">
+        <v>0</v>
+      </c>
+      <c r="X33" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="35">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="35">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="25">
-        <f t="shared" ref="B34:AH34" si="1">MAX(0,TREND($B4:$J4,$B$2:$J$2,B$32))</f>
-        <v>1400000</v>
-      </c>
-      <c r="C34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="D34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="E34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="F34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="G34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="H34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="I34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="J34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="K34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="L34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="M34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="N34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="O34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="P34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="Q34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="R34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="S34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="T34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="U34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="V34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="W34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="X34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="Y34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="Z34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="AA34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="AB34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="AC34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="AD34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="AE34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="AF34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="AG34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-      <c r="AH34" s="25">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="35">
+        <v>0</v>
+      </c>
+      <c r="C34" s="35">
+        <v>0</v>
+      </c>
+      <c r="D34" s="35">
+        <v>0</v>
+      </c>
+      <c r="E34" s="35">
+        <v>0</v>
+      </c>
+      <c r="F34" s="35">
+        <v>0</v>
+      </c>
+      <c r="G34" s="35">
+        <v>0</v>
+      </c>
+      <c r="H34" s="35">
+        <v>0</v>
+      </c>
+      <c r="I34" s="35">
+        <v>0</v>
+      </c>
+      <c r="J34" s="35">
+        <v>0</v>
+      </c>
+      <c r="K34" s="35">
+        <v>0</v>
+      </c>
+      <c r="L34" s="35">
+        <v>0</v>
+      </c>
+      <c r="M34" s="35">
+        <v>0</v>
+      </c>
+      <c r="N34" s="35">
+        <v>0</v>
+      </c>
+      <c r="O34" s="35">
+        <v>0</v>
+      </c>
+      <c r="P34" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="35">
+        <v>0</v>
+      </c>
+      <c r="R34" s="35">
+        <v>0</v>
+      </c>
+      <c r="S34" s="35">
+        <v>0</v>
+      </c>
+      <c r="T34" s="35">
+        <v>0</v>
+      </c>
+      <c r="U34" s="35">
+        <v>0</v>
+      </c>
+      <c r="V34" s="35">
+        <v>0</v>
+      </c>
+      <c r="W34" s="35">
+        <v>0</v>
+      </c>
+      <c r="X34" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="35">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="35">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="25">
-        <f t="shared" ref="B35:AH35" si="2">MAX(0,TREND($B5:$J5,$B$2:$J$2,B$32))</f>
-        <v>1490000</v>
-      </c>
-      <c r="C35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="D35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="E35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="F35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="G35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="H35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="I35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="J35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="K35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="L35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="M35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="N35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="O35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="P35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="Q35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="R35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="S35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="T35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="U35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="V35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="W35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="X35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="Y35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="Z35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="AA35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="AB35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="AC35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="AD35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="AE35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="AF35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="AG35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-      <c r="AH35" s="25">
-        <f t="shared" si="2"/>
-        <v>1490000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="35">
+        <v>0</v>
+      </c>
+      <c r="C35" s="35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="35">
+        <v>0</v>
+      </c>
+      <c r="H35" s="35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="35">
+        <v>0</v>
+      </c>
+      <c r="J35" s="35">
+        <v>0</v>
+      </c>
+      <c r="K35" s="35">
+        <v>0</v>
+      </c>
+      <c r="L35" s="35">
+        <v>0</v>
+      </c>
+      <c r="M35" s="35">
+        <v>0</v>
+      </c>
+      <c r="N35" s="35">
+        <v>0</v>
+      </c>
+      <c r="O35" s="35">
+        <v>0</v>
+      </c>
+      <c r="P35" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="35">
+        <v>0</v>
+      </c>
+      <c r="R35" s="35">
+        <v>0</v>
+      </c>
+      <c r="S35" s="35">
+        <v>0</v>
+      </c>
+      <c r="T35" s="35">
+        <v>0</v>
+      </c>
+      <c r="U35" s="35">
+        <v>0</v>
+      </c>
+      <c r="V35" s="35">
+        <v>0</v>
+      </c>
+      <c r="W35" s="35">
+        <v>0</v>
+      </c>
+      <c r="X35" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="35">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="35">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B36" s="25">
-        <f t="shared" ref="B36:AH36" si="3">MAX(0,TREND($B6:$J6,$B$2:$J$2,B$32))</f>
-        <v>1325000</v>
-      </c>
-      <c r="C36" s="25">
-        <f t="shared" si="3"/>
-        <v>2262500</v>
-      </c>
-      <c r="D36" s="25">
-        <f t="shared" si="3"/>
-        <v>3200000</v>
-      </c>
-      <c r="E36" s="25">
-        <f t="shared" si="3"/>
-        <v>4137500</v>
-      </c>
-      <c r="F36" s="25">
-        <f t="shared" si="3"/>
-        <v>5075000</v>
-      </c>
-      <c r="G36" s="25">
-        <f t="shared" si="3"/>
-        <v>6012500</v>
-      </c>
-      <c r="H36" s="25">
-        <f t="shared" si="3"/>
-        <v>6950000</v>
-      </c>
-      <c r="I36" s="25">
-        <f t="shared" si="3"/>
-        <v>7887500</v>
-      </c>
-      <c r="J36" s="25">
-        <f t="shared" si="3"/>
-        <v>8825000</v>
-      </c>
-      <c r="K36" s="25">
-        <f t="shared" si="3"/>
-        <v>9762500</v>
-      </c>
-      <c r="L36" s="25">
-        <f t="shared" si="3"/>
-        <v>10700000</v>
-      </c>
-      <c r="M36" s="25">
-        <f t="shared" si="3"/>
-        <v>11637500</v>
-      </c>
-      <c r="N36" s="25">
-        <f t="shared" si="3"/>
-        <v>12575000</v>
-      </c>
-      <c r="O36" s="25">
-        <f t="shared" si="3"/>
-        <v>13512500</v>
-      </c>
-      <c r="P36" s="25">
-        <f t="shared" si="3"/>
-        <v>14450000</v>
-      </c>
-      <c r="Q36" s="25">
-        <f t="shared" si="3"/>
-        <v>15387500</v>
-      </c>
-      <c r="R36" s="25">
-        <f t="shared" si="3"/>
-        <v>16325000</v>
-      </c>
-      <c r="S36" s="25">
-        <f t="shared" si="3"/>
-        <v>17262500</v>
-      </c>
-      <c r="T36" s="25">
-        <f t="shared" si="3"/>
-        <v>18200000</v>
-      </c>
-      <c r="U36" s="25">
-        <f t="shared" si="3"/>
-        <v>19137500</v>
-      </c>
-      <c r="V36" s="25">
-        <f t="shared" si="3"/>
-        <v>20075000</v>
-      </c>
-      <c r="W36" s="25">
-        <f t="shared" si="3"/>
-        <v>21012500</v>
-      </c>
-      <c r="X36" s="25">
-        <f t="shared" si="3"/>
-        <v>21950000</v>
-      </c>
-      <c r="Y36" s="25">
-        <f t="shared" si="3"/>
-        <v>22887500</v>
-      </c>
-      <c r="Z36" s="25">
-        <f t="shared" si="3"/>
-        <v>23825000</v>
-      </c>
-      <c r="AA36" s="25">
-        <f t="shared" si="3"/>
-        <v>24762500</v>
-      </c>
-      <c r="AB36" s="25">
-        <f t="shared" si="3"/>
-        <v>25700000</v>
-      </c>
-      <c r="AC36" s="25">
-        <f t="shared" si="3"/>
-        <v>26637500</v>
-      </c>
-      <c r="AD36" s="25">
-        <f t="shared" si="3"/>
-        <v>27575000</v>
-      </c>
-      <c r="AE36" s="25">
-        <f t="shared" si="3"/>
-        <v>28512500</v>
-      </c>
-      <c r="AF36" s="25">
-        <f t="shared" si="3"/>
-        <v>29450000</v>
-      </c>
-      <c r="AG36" s="25">
-        <f t="shared" si="3"/>
-        <v>30387500</v>
-      </c>
-      <c r="AH36" s="25">
-        <f t="shared" si="3"/>
-        <v>31325000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="35">
+        <v>0</v>
+      </c>
+      <c r="C36" s="35">
+        <v>0</v>
+      </c>
+      <c r="D36" s="35">
+        <v>0</v>
+      </c>
+      <c r="E36" s="35">
+        <v>0</v>
+      </c>
+      <c r="F36" s="35">
+        <v>0</v>
+      </c>
+      <c r="G36" s="35">
+        <v>0</v>
+      </c>
+      <c r="H36" s="35">
+        <v>0</v>
+      </c>
+      <c r="I36" s="35">
+        <v>0</v>
+      </c>
+      <c r="J36" s="35">
+        <v>0</v>
+      </c>
+      <c r="K36" s="35">
+        <v>0</v>
+      </c>
+      <c r="L36" s="35">
+        <v>0</v>
+      </c>
+      <c r="M36" s="35">
+        <v>0</v>
+      </c>
+      <c r="N36" s="35">
+        <v>0</v>
+      </c>
+      <c r="O36" s="35">
+        <v>0</v>
+      </c>
+      <c r="P36" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="35">
+        <v>0</v>
+      </c>
+      <c r="R36" s="35">
+        <v>0</v>
+      </c>
+      <c r="S36" s="35">
+        <v>0</v>
+      </c>
+      <c r="T36" s="35">
+        <v>0</v>
+      </c>
+      <c r="U36" s="35">
+        <v>0</v>
+      </c>
+      <c r="V36" s="35">
+        <v>0</v>
+      </c>
+      <c r="W36" s="35">
+        <v>0</v>
+      </c>
+      <c r="X36" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="35">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="35">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="B37" s="25">
-        <f t="shared" ref="B37:AH37" si="4">MAX(0,TREND($B7:$J7,$B$2:$J$2,B$32))</f>
-        <v>22515873.015873015</v>
-      </c>
-      <c r="C37" s="25">
-        <f t="shared" si="4"/>
-        <v>22574206.349206343</v>
-      </c>
-      <c r="D37" s="25">
-        <f t="shared" si="4"/>
-        <v>22632539.682539687</v>
-      </c>
-      <c r="E37" s="25">
-        <f t="shared" si="4"/>
-        <v>22690873.015873015</v>
-      </c>
-      <c r="F37" s="25">
-        <f t="shared" si="4"/>
-        <v>22749206.349206343</v>
-      </c>
-      <c r="G37" s="25">
-        <f t="shared" si="4"/>
-        <v>22807539.682539687</v>
-      </c>
-      <c r="H37" s="25">
-        <f t="shared" si="4"/>
-        <v>22865873.015873015</v>
-      </c>
-      <c r="I37" s="25">
-        <f t="shared" si="4"/>
-        <v>22924206.349206343</v>
-      </c>
-      <c r="J37" s="25">
-        <f t="shared" si="4"/>
-        <v>22982539.682539687</v>
-      </c>
-      <c r="K37" s="25">
-        <f t="shared" si="4"/>
-        <v>23040873.015873015</v>
-      </c>
-      <c r="L37" s="25">
-        <f t="shared" si="4"/>
-        <v>23099206.349206343</v>
-      </c>
-      <c r="M37" s="25">
-        <f t="shared" si="4"/>
-        <v>23157539.682539687</v>
-      </c>
-      <c r="N37" s="25">
-        <f t="shared" si="4"/>
-        <v>23215873.015873015</v>
-      </c>
-      <c r="O37" s="25">
-        <f t="shared" si="4"/>
-        <v>23274206.349206343</v>
-      </c>
-      <c r="P37" s="25">
-        <f t="shared" si="4"/>
-        <v>23332539.682539687</v>
-      </c>
-      <c r="Q37" s="25">
-        <f t="shared" si="4"/>
-        <v>23390873.015873015</v>
-      </c>
-      <c r="R37" s="25">
-        <f t="shared" si="4"/>
-        <v>23449206.349206343</v>
-      </c>
-      <c r="S37" s="25">
-        <f t="shared" si="4"/>
-        <v>23507539.682539687</v>
-      </c>
-      <c r="T37" s="25">
-        <f t="shared" si="4"/>
-        <v>23565873.015873015</v>
-      </c>
-      <c r="U37" s="25">
-        <f t="shared" si="4"/>
-        <v>23624206.349206343</v>
-      </c>
-      <c r="V37" s="25">
-        <f t="shared" si="4"/>
-        <v>23682539.682539687</v>
-      </c>
-      <c r="W37" s="25">
-        <f t="shared" si="4"/>
-        <v>23740873.015873015</v>
-      </c>
-      <c r="X37" s="25">
-        <f t="shared" si="4"/>
-        <v>23799206.349206343</v>
-      </c>
-      <c r="Y37" s="25">
-        <f t="shared" si="4"/>
-        <v>23857539.682539687</v>
-      </c>
-      <c r="Z37" s="25">
-        <f t="shared" si="4"/>
-        <v>23915873.015873015</v>
-      </c>
-      <c r="AA37" s="25">
-        <f t="shared" si="4"/>
-        <v>23974206.349206343</v>
-      </c>
-      <c r="AB37" s="25">
-        <f t="shared" si="4"/>
-        <v>24032539.682539687</v>
-      </c>
-      <c r="AC37" s="25">
-        <f t="shared" si="4"/>
-        <v>24090873.015873015</v>
-      </c>
-      <c r="AD37" s="25">
-        <f t="shared" si="4"/>
-        <v>24149206.349206343</v>
-      </c>
-      <c r="AE37" s="25">
-        <f t="shared" si="4"/>
-        <v>24207539.682539687</v>
-      </c>
-      <c r="AF37" s="25">
-        <f t="shared" si="4"/>
-        <v>24265873.015873015</v>
-      </c>
-      <c r="AG37" s="25">
-        <f t="shared" si="4"/>
-        <v>24324206.349206343</v>
-      </c>
-      <c r="AH37" s="25">
-        <f t="shared" si="4"/>
-        <v>24382539.682539687</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="35">
+        <v>0</v>
+      </c>
+      <c r="C37" s="35">
+        <v>0</v>
+      </c>
+      <c r="D37" s="35">
+        <v>0</v>
+      </c>
+      <c r="E37" s="35">
+        <v>0</v>
+      </c>
+      <c r="F37" s="35">
+        <v>0</v>
+      </c>
+      <c r="G37" s="35">
+        <v>0</v>
+      </c>
+      <c r="H37" s="35">
+        <v>0</v>
+      </c>
+      <c r="I37" s="35">
+        <v>0</v>
+      </c>
+      <c r="J37" s="35">
+        <v>0</v>
+      </c>
+      <c r="K37" s="35">
+        <v>0</v>
+      </c>
+      <c r="L37" s="35">
+        <v>0</v>
+      </c>
+      <c r="M37" s="35">
+        <v>0</v>
+      </c>
+      <c r="N37" s="35">
+        <v>0</v>
+      </c>
+      <c r="O37" s="35">
+        <v>0</v>
+      </c>
+      <c r="P37" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="35">
+        <v>0</v>
+      </c>
+      <c r="R37" s="35">
+        <v>0</v>
+      </c>
+      <c r="S37" s="35">
+        <v>0</v>
+      </c>
+      <c r="T37" s="35">
+        <v>0</v>
+      </c>
+      <c r="U37" s="35">
+        <v>0</v>
+      </c>
+      <c r="V37" s="35">
+        <v>0</v>
+      </c>
+      <c r="W37" s="35">
+        <v>0</v>
+      </c>
+      <c r="X37" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="35">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="35">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
     </row>
-    <row r="39" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
     </row>
-    <row r="40" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
     </row>
-    <row r="41" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
     </row>
-    <row r="42" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
     </row>
-    <row r="43" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
     </row>
-    <row r="44" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
     </row>
-    <row r="45" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
     </row>
-    <row r="46" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
     </row>
-    <row r="47" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
     </row>
-    <row r="48" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
     </row>
-    <row r="49" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17"/>
     </row>
-    <row r="50" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
     </row>
-    <row r="51" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17"/>
     </row>
-    <row r="52" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17"/>
     </row>
-    <row r="53" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>149</v>
       </c>
@@ -10366,12 +10222,12 @@
       <c r="AG55" s="7"/>
       <c r="AH55" s="7"/>
     </row>
-    <row r="56" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>100</v>
       </c>
@@ -10472,7 +10328,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="58" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>133</v>
       </c>
@@ -10573,7 +10429,7 @@
         <v>957155000000000</v>
       </c>
     </row>
-    <row r="59" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>134</v>
       </c>
@@ -10674,7 +10530,7 @@
         <v>344835000000000</v>
       </c>
     </row>
-    <row r="60" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>135</v>
       </c>
@@ -10775,7 +10631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>136</v>
       </c>
@@ -10876,7 +10732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>137</v>
       </c>
@@ -10977,7 +10833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>138</v>
       </c>
@@ -11078,7 +10934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>139</v>
       </c>
@@ -11179,7 +11035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>140</v>
       </c>
@@ -11280,7 +11136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>141</v>
       </c>
@@ -11381,7 +11237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>142</v>
       </c>
@@ -11482,7 +11338,7 @@
         <v>11286300000000</v>
       </c>
     </row>
-    <row r="68" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>143</v>
       </c>
@@ -11583,7 +11439,7 @@
         <v>99792600000000</v>
       </c>
     </row>
-    <row r="69" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>144</v>
       </c>
@@ -11684,7 +11540,7 @@
         <v>43507100000000</v>
       </c>
     </row>
-    <row r="70" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>145</v>
       </c>
@@ -11785,7 +11641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>146</v>
       </c>
@@ -11886,7 +11742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>147</v>
       </c>
@@ -11987,7 +11843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>148</v>
       </c>
@@ -12088,7 +11944,7 @@
         <v>24454600000000</v>
       </c>
     </row>
-    <row r="74" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="26"/>
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
@@ -12122,12 +11978,12 @@
       <c r="AF74" s="26"/>
       <c r="AG74" s="26"/>
     </row>
-    <row r="75" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>100</v>
       </c>
@@ -12228,7 +12084,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="77" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>150</v>
       </c>
@@ -12329,7 +12185,7 @@
         <v>455116000000000</v>
       </c>
     </row>
-    <row r="78" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>151</v>
       </c>
@@ -12430,7 +12286,7 @@
         <v>400057000000000</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>102</v>
       </c>
@@ -12468,7 +12324,7 @@
       <c r="AG80" s="7"/>
       <c r="AH80" s="7"/>
     </row>
-    <row r="81" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20"/>
       <c r="B81">
         <v>2019</v>
@@ -12567,765 +12423,765 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="82" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="27" t="s">
         <v>116</v>
       </c>
       <c r="B82" s="29">
-        <f>C33*10^6/B58</f>
+        <f t="shared" ref="B82:AG82" si="0">C33*10^6/B58</f>
         <v>0</v>
       </c>
       <c r="C82" s="29">
-        <f>D33*10^6/C58</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D82" s="29">
-        <f>E33*10^6/D58</f>
-        <v>5.4427953162471533E-4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E82" s="29">
-        <f>F33*10^6/E58</f>
-        <v>1.2547612516376652E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F82" s="29">
-        <f>G33*10^6/F58</f>
-        <v>1.903541461259452E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G82" s="29">
-        <f>H33*10^6/G58</f>
-        <v>2.5431620761818532E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H82" s="29">
-        <f>I33*10^6/H58</f>
-        <v>3.206071428754822E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I82" s="29">
-        <f>J33*10^6/I58</f>
-        <v>3.6539824046691416E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J82" s="29">
-        <f>K33*10^6/J58</f>
-        <v>4.1648581638994864E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K82" s="29">
-        <f>L33*10^6/K58</f>
-        <v>4.7209866605924739E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L82" s="29">
-        <f>M33*10^6/L58</f>
-        <v>5.4190946236962363E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="M82" s="29">
-        <f>N33*10^6/M58</f>
-        <v>6.1789810044871694E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N82" s="29">
-        <f>O33*10^6/N58</f>
-        <v>6.8327920437123045E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O82" s="29">
-        <f>P33*10^6/O58</f>
-        <v>7.4262901331617814E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="P82" s="29">
-        <f>Q33*10^6/P58</f>
-        <v>7.94212200981902E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Q82" s="29">
-        <f>R33*10^6/Q58</f>
-        <v>8.5178126618330654E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R82" s="29">
-        <f>S33*10^6/R58</f>
-        <v>9.1454223276793197E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="S82" s="29">
-        <f>T33*10^6/S58</f>
-        <v>9.8005002244105598E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="T82" s="29">
-        <f>U33*10^6/T58</f>
-        <v>1.0437478070828638E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="U82" s="29">
-        <f>V33*10^6/U58</f>
-        <v>1.1112481538301917E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="V82" s="29">
-        <f>W33*10^6/V58</f>
-        <v>1.1709250775859183E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="W82" s="29">
-        <f>X33*10^6/W58</f>
-        <v>1.2316690109345635E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="X82" s="29">
-        <f>Y33*10^6/X58</f>
-        <v>1.2990014970808646E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Y82" s="29">
-        <f>Z33*10^6/Y58</f>
-        <v>1.3606276195386973E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Z82" s="29">
-        <f>AA33*10^6/Z58</f>
-        <v>1.419933058413949E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AA82" s="29">
-        <f>AB33*10^6/AA58</f>
-        <v>1.476660448394294E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AB82" s="29">
-        <f>AC33*10^6/AB58</f>
-        <v>1.5413661768696327E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AC82" s="29">
-        <f>AD33*10^6/AC58</f>
-        <v>1.5912520573667956E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AD82" s="29">
-        <f>AE33*10^6/AD58</f>
-        <v>1.6395733503759218E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AE82" s="29">
-        <f>AF33*10^6/AE58</f>
-        <v>1.6915756275758358E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AF82" s="29">
-        <f>AG33*10^6/AF58</f>
-        <v>1.7486588022043854E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AG82" s="29">
-        <f>AH33*10^6/AG58</f>
-        <v>1.7960634496096167E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="27" t="s">
         <v>117</v>
       </c>
       <c r="B83" s="29">
-        <f>C34*10^6/B59</f>
-        <v>2.9182108865941562E-3</v>
+        <f t="shared" ref="B83:AG83" si="1">C34*10^6/B59</f>
+        <v>0</v>
       </c>
       <c r="C83" s="29">
-        <f>D34*10^6/C59</f>
-        <v>2.8914269191846176E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D83" s="29">
-        <f>E34*10^6/D59</f>
-        <v>3.0257316867589659E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E83" s="29">
-        <f>F34*10^6/E59</f>
-        <v>2.8321964087749535E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F83" s="29">
-        <f>G34*10^6/F59</f>
-        <v>2.8291630123311092E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G83" s="29">
-        <f>H34*10^6/G59</f>
-        <v>3.0448749317621778E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H83" s="29">
-        <f>I34*10^6/H59</f>
-        <v>3.3655464205009857E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I83" s="29">
-        <f>J34*10^6/I59</f>
-        <v>3.5776986708849438E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J83" s="29">
-        <f>K34*10^6/J59</f>
-        <v>3.7108406909585365E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K83" s="29">
-        <f>L34*10^6/K59</f>
-        <v>3.7969499643357913E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L83" s="29">
-        <f>M34*10^6/L59</f>
-        <v>3.7724257236320916E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M83" s="29">
-        <f>N34*10^6/M59</f>
-        <v>3.6910778738336852E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N83" s="29">
-        <f>O34*10^6/N59</f>
-        <v>3.6788761558897492E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O83" s="29">
-        <f>P34*10^6/O59</f>
-        <v>3.705556481944676E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P83" s="29">
-        <f>Q34*10^6/P59</f>
-        <v>3.7536833017398322E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q83" s="29">
-        <f>R34*10^6/Q59</f>
-        <v>3.8017754291254017E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R83" s="29">
-        <f>S34*10^6/R59</f>
-        <v>3.8125842513037677E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S83" s="29">
-        <f>T34*10^6/S59</f>
-        <v>3.8042857996880486E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T83" s="29">
-        <f>U34*10^6/T59</f>
-        <v>3.8112349762478392E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="U83" s="29">
-        <f>V34*10^6/U59</f>
-        <v>3.8310192152978071E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="V83" s="29">
-        <f>W34*10^6/V59</f>
-        <v>3.8419952029945608E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="W83" s="29">
-        <f>X34*10^6/W59</f>
-        <v>3.8550182700330155E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="X83" s="29">
-        <f>Y34*10^6/X59</f>
-        <v>3.8375825422887889E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Y83" s="29">
-        <f>Z34*10^6/Y59</f>
-        <v>3.8692524327924669E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Z83" s="29">
-        <f>AA34*10^6/Z59</f>
-        <v>3.8639876352395673E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AA83" s="29">
-        <f>AB34*10^6/AA59</f>
-        <v>3.8746066582347844E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AB83" s="29">
-        <f>AC34*10^6/AB59</f>
-        <v>3.9108330074305829E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC83" s="29">
-        <f>AD34*10^6/AC59</f>
-        <v>3.9210633923920171E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD83" s="29">
-        <f>AE34*10^6/AD59</f>
-        <v>3.992380257109289E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AE83" s="29">
-        <f>AF34*10^6/AE59</f>
-        <v>4.0295886941254357E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AF83" s="29">
-        <f>AG34*10^6/AF59</f>
-        <v>4.0404390225600795E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AG83" s="29">
-        <f>AH34*10^6/AG59</f>
-        <v>4.0599127118766945E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
         <v>164</v>
       </c>
       <c r="B84" s="29">
-        <f>C35*10^6/B77</f>
-        <v>3.7571423528284472E-3</v>
+        <f t="shared" ref="B84:AG84" si="2">C35*10^6/B77</f>
+        <v>0</v>
       </c>
       <c r="C84" s="29">
-        <f>D35*10^6/C77</f>
-        <v>4.0256778809263918E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D84" s="29">
-        <f>E35*10^6/D77</f>
-        <v>3.8992170162877359E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E84" s="29">
-        <f>F35*10^6/E77</f>
-        <v>3.7654788981551679E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F84" s="29">
-        <f>G35*10^6/F77</f>
-        <v>3.7273389051629899E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G84" s="29">
-        <f>H35*10^6/G77</f>
-        <v>3.6627155225392206E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H84" s="29">
-        <f>I35*10^6/H77</f>
-        <v>3.5994076679461877E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I84" s="29">
-        <f>J35*10^6/I77</f>
-        <v>3.539402577350199E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J84" s="29">
-        <f>K35*10^6/J77</f>
-        <v>3.538435963808212E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K84" s="29">
-        <f>L35*10^6/K77</f>
-        <v>3.5043651689621435E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L84" s="29">
-        <f>M35*10^6/L77</f>
-        <v>3.4955765707220827E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M84" s="29">
-        <f>N35*10^6/M77</f>
-        <v>3.5256592272890756E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N84" s="29">
-        <f>O35*10^6/N77</f>
-        <v>3.5273535615617893E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O84" s="29">
-        <f>P35*10^6/O77</f>
-        <v>3.51025985346432E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P84" s="29">
-        <f>Q35*10^6/P77</f>
-        <v>3.5210601935874168E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Q84" s="29">
-        <f>R35*10^6/Q77</f>
-        <v>3.4832127845597829E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R84" s="29">
-        <f>S35*10^6/R77</f>
-        <v>3.4751781320334456E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S84" s="29">
-        <f>T35*10^6/S77</f>
-        <v>3.4783826687832665E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="T84" s="29">
-        <f>U35*10^6/T77</f>
-        <v>3.437377442498904E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="U84" s="29">
-        <f>V35*10^6/U77</f>
-        <v>3.4285109447733616E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="V84" s="29">
-        <f>W35*10^6/V77</f>
-        <v>3.4142127489912031E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="W84" s="29">
-        <f>X35*10^6/W77</f>
-        <v>3.3956012151238712E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X84" s="29">
-        <f>Y35*10^6/X77</f>
-        <v>3.3767016650085324E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Y84" s="29">
-        <f>Z35*10^6/Y77</f>
-        <v>3.3666686249079251E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Z84" s="29">
-        <f>AA35*10^6/Z77</f>
-        <v>3.3564681845111382E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AA84" s="29">
-        <f>AB35*10^6/AA77</f>
-        <v>3.3452324824319165E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AB84" s="29">
-        <f>AC35*10^6/AB77</f>
-        <v>3.3315296863890244E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AC84" s="29">
-        <f>AD35*10^6/AC77</f>
-        <v>3.3328636008795182E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AD84" s="29">
-        <f>AE35*10^6/AD77</f>
-        <v>3.3076637904051109E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AE84" s="29">
-        <f>AF35*10^6/AE77</f>
-        <v>3.2884790673961646E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AF84" s="29">
-        <f>AG35*10^6/AF77</f>
-        <v>3.2761149234730338E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AG84" s="29">
-        <f>AH35*10^6/AG77</f>
-        <v>3.273890612503186E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
         <v>165</v>
       </c>
       <c r="B85" s="29">
-        <f>C36*10^6/B78</f>
-        <v>9.0928820316613142E-3</v>
+        <f t="shared" ref="B85:AG85" si="3">C36*10^6/B78</f>
+        <v>0</v>
       </c>
       <c r="C85" s="29">
-        <f>D36*10^6/C78</f>
-        <v>1.4176416644885193E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="D85" s="29">
-        <f>E36*10^6/D78</f>
-        <v>1.6867376557302197E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E85" s="29">
-        <f>F36*10^6/E78</f>
-        <v>1.9451002636904396E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F85" s="29">
-        <f>G36*10^6/F78</f>
-        <v>2.2025745853115293E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G85" s="29">
-        <f>H36*10^6/G78</f>
-        <v>2.4468126304820044E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H85" s="29">
-        <f>I36*10^6/H78</f>
-        <v>2.6849784180498631E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I85" s="29">
-        <f>J36*10^6/I78</f>
-        <v>2.9322833599149389E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J85" s="29">
-        <f>K36*10^6/J78</f>
-        <v>3.1707958738242475E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K85" s="29">
-        <f>L36*10^6/K78</f>
-        <v>3.4001715974451049E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L85" s="29">
-        <f>M36*10^6/L78</f>
-        <v>3.630014566846855E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="M85" s="29">
-        <f>N36*10^6/M78</f>
-        <v>3.8489909981053477E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="N85" s="29">
-        <f>O36*10^6/N78</f>
-        <v>4.0875499505410237E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O85" s="29">
-        <f>P36*10^6/O78</f>
-        <v>4.3203970579441489E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P85" s="29">
-        <f>Q36*10^6/P78</f>
-        <v>4.5520299613058965E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q85" s="29">
-        <f>R36*10^6/Q78</f>
-        <v>4.7772471351148878E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="R85" s="29">
-        <f>S36*10^6/R78</f>
-        <v>4.9934770220508476E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="S85" s="29">
-        <f>T36*10^6/S78</f>
-        <v>5.2155124240956675E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="T85" s="29">
-        <f>U36*10^6/T78</f>
-        <v>5.4326535478669648E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="U85" s="29">
-        <f>V36*10^6/U78</f>
-        <v>5.6464995921581863E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="V85" s="29">
-        <f>W36*10^6/V78</f>
-        <v>5.8524608884321115E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="W85" s="29">
-        <f>X36*10^6/W78</f>
-        <v>6.0523841430292803E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="X85" s="29">
-        <f>Y36*10^6/X78</f>
-        <v>6.252390318527018E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Y85" s="29">
-        <f>Z36*10^6/Y78</f>
-        <v>6.4399550216782536E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Z85" s="29">
-        <f>AA36*10^6/Z78</f>
-        <v>6.631237581074495E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AA85" s="29">
-        <f>AB36*10^6/AA78</f>
-        <v>6.8128017050560527E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AB85" s="29">
-        <f>AC36*10^6/AB78</f>
-        <v>6.9927178604055312E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AC85" s="29">
-        <f>AD36*10^6/AC78</f>
-        <v>7.1616122003225646E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AD85" s="29">
-        <f>AE36*10^6/AD78</f>
-        <v>7.3368586279656214E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AE85" s="29">
-        <f>AF36*10^6/AE78</f>
-        <v>7.5067420484611819E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AF85" s="29">
-        <f>AG36*10^6/AF78</f>
-        <v>7.6602250612565925E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AG85" s="29">
-        <f>AH36*10^6/AG78</f>
-        <v>7.8301342058756621E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="28" t="s">
         <v>178</v>
       </c>
       <c r="B86" s="29">
-        <f>C37*10^6/B77</f>
-        <v>5.6922487755766443E-2</v>
+        <f t="shared" ref="B86:AG86" si="4">C37*10^6/B77</f>
+        <v>0</v>
       </c>
       <c r="C86" s="29">
-        <f>D37*10^6/C77</f>
-        <v>6.114853314710661E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="D86" s="29">
-        <f>E37*10^6/D77</f>
-        <v>5.9380294079138446E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="E86" s="29">
-        <f>F37*10^6/E77</f>
-        <v>5.7491044602492658E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F86" s="29">
-        <f>G37*10^6/F77</f>
-        <v>5.7054650999851624E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G86" s="29">
-        <f>H37*10^6/G77</f>
-        <v>5.6208851027952214E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H86" s="29">
-        <f>I37*10^6/H77</f>
-        <v>5.5378230949606706E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I86" s="29">
-        <f>J37*10^6/I77</f>
-        <v>5.459359744055986E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="J86" s="29">
-        <f>K37*10^6/J77</f>
-        <v>5.471721725966662E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="K86" s="29">
-        <f>L37*10^6/K77</f>
-        <v>5.4327553128072421E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L86" s="29">
-        <f>M37*10^6/L77</f>
-        <v>5.4328156476411163E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="M86" s="29">
-        <f>N37*10^6/M77</f>
-        <v>5.493372947515715E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="N86" s="29">
-        <f>O37*10^6/N77</f>
-        <v>5.509822460295101E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O86" s="29">
-        <f>P37*10^6/O77</f>
-        <v>5.4968642501330336E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P86" s="29">
-        <f>Q37*10^6/P77</f>
-        <v>5.5275618704327865E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q86" s="29">
-        <f>R37*10^6/Q77</f>
-        <v>5.4817835800896622E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R86" s="29">
-        <f>S37*10^6/R77</f>
-        <v>5.48274415051479E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="S86" s="29">
-        <f>T37*10^6/S77</f>
-        <v>5.5014177364536877E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="T86" s="29">
-        <f>U37*10^6/T77</f>
-        <v>5.4500210739396829E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="U86" s="29">
-        <f>V37*10^6/U77</f>
-        <v>5.449385671249448E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="V86" s="29">
-        <f>W37*10^6/V77</f>
-        <v>5.4400262632869054E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="W86" s="29">
-        <f>X37*10^6/W77</f>
-        <v>5.4236653690166989E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="X86" s="29">
-        <f>Y37*10^6/X77</f>
-        <v>5.4066975818146908E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Y86" s="29">
-        <f>Z37*10^6/Y77</f>
-        <v>5.4038133771692455E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Z86" s="29">
-        <f>AA37*10^6/Z77</f>
-        <v>5.4005812657728872E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="AA86" s="29">
-        <f>AB37*10^6/AA77</f>
-        <v>5.3955994886822678E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="AB86" s="29">
-        <f>AC37*10^6/AB77</f>
-        <v>5.3865408472086734E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="AC86" s="29">
-        <f>AD37*10^6/AC77</f>
-        <v>5.4017456933824412E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="AD86" s="29">
-        <f>AE37*10^6/AD77</f>
-        <v>5.3738525142772726E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="AE86" s="29">
-        <f>AF37*10^6/AE77</f>
-        <v>5.355558084885359E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="AF86" s="29">
-        <f>AG37*10^6/AF77</f>
-        <v>5.3482480149176122E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="AG86" s="29">
-        <f>AH37*10^6/AG77</f>
-        <v>5.3574340789028924E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="20"/>
     </row>
-    <row r="88" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20"/>
     </row>
-    <row r="89" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="20"/>
     </row>
-    <row r="90" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="20"/>
     </row>
-    <row r="91" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="20"/>
     </row>
-    <row r="92" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20"/>
     </row>
-    <row r="93" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20"/>
     </row>
-    <row r="94" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="20"/>
     </row>
-    <row r="95" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="20"/>
     </row>
-    <row r="96" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="20"/>
     </row>
-    <row r="97" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="20"/>
     </row>
-    <row r="98" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20"/>
     </row>
-    <row r="99" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="20"/>
     </row>
-    <row r="100" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="20"/>
     </row>
-    <row r="101" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="20"/>
     </row>
-    <row r="102" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="20"/>
     </row>
-    <row r="103" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="20"/>
     </row>
-    <row r="104" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="20"/>
     </row>
-    <row r="105" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="20"/>
     </row>
-    <row r="106" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="20"/>
     </row>
-    <row r="107" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="20"/>
     </row>
-    <row r="108" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="20"/>
     </row>
-    <row r="109" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B115">
         <v>2019</v>
       </c>
@@ -13333,7 +13189,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="27" t="s">
         <v>116</v>
       </c>
@@ -13343,62 +13199,62 @@
       </c>
       <c r="C116" s="30">
         <f>MAX(AG82,B116)</f>
-        <v>1.7960634496096167E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="27" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="30">
         <f t="shared" ref="B117:B120" si="5">B83</f>
-        <v>2.9182108865941562E-3</v>
+        <v>0</v>
       </c>
       <c r="C117" s="30">
         <f>MAX(AG83,B117)</f>
-        <v>4.0599127118766945E-3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="28" t="s">
         <v>164</v>
       </c>
       <c r="B118" s="30">
         <f t="shared" si="5"/>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="C118" s="30">
         <f>MAX(AG84,B118)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="D118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="28" t="s">
         <v>165</v>
       </c>
       <c r="B119" s="30">
         <f t="shared" si="5"/>
-        <v>9.0928820316613142E-3</v>
+        <v>0</v>
       </c>
       <c r="C119" s="30">
         <f>MAX(AG85,B119)</f>
-        <v>7.8301342058756621E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="28" t="s">
         <v>178</v>
       </c>
       <c r="B120" s="30">
         <f t="shared" si="5"/>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="C120" s="30">
         <f>MAX(AG86,B120)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="D120" t="s">
         <v>152</v>
@@ -13419,12 +13275,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>115</v>
       </c>
@@ -13525,7 +13381,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>116</v>
       </c>
@@ -13535,263 +13391,263 @@
       </c>
       <c r="C2" s="2" cm="1">
         <f t="array" ref="C2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,C$1)</f>
-        <v>5.7937530632568013E-4</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" cm="1">
         <f t="array" ref="D2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,D$1)</f>
-        <v>1.1587506126513603E-3</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" cm="1">
         <f t="array" ref="E2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,E$1)</f>
-        <v>1.7381259189770404E-3</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2" cm="1">
         <f t="array" ref="F2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,F$1)</f>
-        <v>2.3175012253027205E-3</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2" cm="1">
         <f t="array" ref="G2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,G$1)</f>
-        <v>2.8968765316284006E-3</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2" cm="1">
         <f t="array" ref="H2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,H$1)</f>
-        <v>3.4762518379540808E-3</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" cm="1">
         <f t="array" ref="I2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,I$1)</f>
-        <v>4.0556271442797609E-3</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" cm="1">
         <f t="array" ref="J2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,J$1)</f>
-        <v>4.635002450605441E-3</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2" cm="1">
         <f t="array" ref="K2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,K$1)</f>
-        <v>5.2143777569311212E-3</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2" cm="1">
         <f t="array" ref="L2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,L$1)</f>
-        <v>5.7937530632568013E-3</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2" cm="1">
         <f t="array" ref="M2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,M$1)</f>
-        <v>6.3731283695824814E-3</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2" cm="1">
         <f t="array" ref="N2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,N$1)</f>
-        <v>6.9525036759081615E-3</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2" cm="1">
         <f t="array" ref="O2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,O$1)</f>
-        <v>7.5318789822338417E-3</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2" cm="1">
         <f t="array" ref="P2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,P$1)</f>
-        <v>8.1112542885595218E-3</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2" cm="1">
         <f t="array" ref="Q2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,Q$1)</f>
-        <v>8.6906295948852019E-3</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2" cm="1">
         <f t="array" ref="R2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,R$1)</f>
-        <v>9.2700049012108821E-3</v>
+        <v>0</v>
       </c>
       <c r="S2" s="2" cm="1">
         <f t="array" ref="S2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,S$1)</f>
-        <v>9.8493802075365622E-3</v>
+        <v>0</v>
       </c>
       <c r="T2" s="2" cm="1">
         <f t="array" ref="T2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,T$1)</f>
-        <v>1.0428755513862242E-2</v>
+        <v>0</v>
       </c>
       <c r="U2" s="2" cm="1">
         <f t="array" ref="U2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,U$1)</f>
-        <v>1.1008130820187922E-2</v>
+        <v>0</v>
       </c>
       <c r="V2" s="2" cm="1">
         <f t="array" ref="V2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,V$1)</f>
-        <v>1.1587506126513603E-2</v>
+        <v>0</v>
       </c>
       <c r="W2" s="2" cm="1">
         <f t="array" ref="W2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,W$1)</f>
-        <v>1.2166881432839283E-2</v>
+        <v>0</v>
       </c>
       <c r="X2" s="2" cm="1">
         <f t="array" ref="X2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,X$1)</f>
-        <v>1.2746256739164963E-2</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="2" cm="1">
         <f t="array" ref="Y2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,Y$1)</f>
-        <v>1.3325632045490643E-2</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="2" cm="1">
         <f t="array" ref="Z2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,Z$1)</f>
-        <v>1.3905007351816323E-2</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="2" cm="1">
         <f t="array" ref="AA2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,AA$1)</f>
-        <v>1.4484382658142003E-2</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="2" cm="1">
         <f t="array" ref="AB2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,AB$1)</f>
-        <v>1.5063757964467683E-2</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="2" cm="1">
         <f t="array" ref="AC2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,AC$1)</f>
-        <v>1.5643133270793363E-2</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="2" cm="1">
         <f t="array" ref="AD2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,AD$1)</f>
-        <v>1.6222508577119044E-2</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="2" cm="1">
         <f t="array" ref="AE2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,AE$1)</f>
-        <v>1.6801883883444724E-2</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="2" cm="1">
         <f t="array" ref="AF2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,AF$1)</f>
-        <v>1.7381259189770404E-2</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="2" cm="1">
         <f t="array" ref="AG2">TREND('BAU Calculations'!$B116:$C116,'BAU Calculations'!$B$115:$C$115,AG$1)</f>
-        <v>1.7960634496096084E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="2" cm="1">
         <f t="array" ref="B3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,B$1)</f>
-        <v>2.9182108865941497E-3</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2" cm="1">
         <f t="array" ref="C3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,C$1)</f>
-        <v>2.9550399777323044E-3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" cm="1">
         <f t="array" ref="D3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,D$1)</f>
-        <v>2.9918690688704452E-3</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" cm="1">
         <f t="array" ref="E3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,E$1)</f>
-        <v>3.0286981600085999E-3</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" cm="1">
         <f t="array" ref="F3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,F$1)</f>
-        <v>3.0655272511467407E-3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" cm="1">
         <f t="array" ref="G3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,G$1)</f>
-        <v>3.1023563422848816E-3</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2" cm="1">
         <f t="array" ref="H3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,H$1)</f>
-        <v>3.1391854334230362E-3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2" cm="1">
         <f t="array" ref="I3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,I$1)</f>
-        <v>3.1760145245611771E-3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" cm="1">
         <f t="array" ref="J3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,J$1)</f>
-        <v>3.2128436156993317E-3</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2" cm="1">
         <f t="array" ref="K3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,K$1)</f>
-        <v>3.2496727068374726E-3</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2" cm="1">
         <f t="array" ref="L3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,L$1)</f>
-        <v>3.2865017979756134E-3</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2" cm="1">
         <f t="array" ref="M3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,M$1)</f>
-        <v>3.3233308891137681E-3</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2" cm="1">
         <f t="array" ref="N3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,N$1)</f>
-        <v>3.3601599802519089E-3</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2" cm="1">
         <f t="array" ref="O3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,O$1)</f>
-        <v>3.3969890713900636E-3</v>
+        <v>0</v>
       </c>
       <c r="P3" s="2" cm="1">
         <f t="array" ref="P3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,P$1)</f>
-        <v>3.4338181625282044E-3</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2" cm="1">
         <f t="array" ref="Q3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,Q$1)</f>
-        <v>3.4706472536663452E-3</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2" cm="1">
         <f t="array" ref="R3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,R$1)</f>
-        <v>3.5074763448044999E-3</v>
+        <v>0</v>
       </c>
       <c r="S3" s="2" cm="1">
         <f t="array" ref="S3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,S$1)</f>
-        <v>3.5443054359426407E-3</v>
+        <v>0</v>
       </c>
       <c r="T3" s="2" cm="1">
         <f t="array" ref="T3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,T$1)</f>
-        <v>3.5811345270807954E-3</v>
+        <v>0</v>
       </c>
       <c r="U3" s="2" cm="1">
         <f t="array" ref="U3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,U$1)</f>
-        <v>3.6179636182189362E-3</v>
+        <v>0</v>
       </c>
       <c r="V3" s="2" cm="1">
         <f t="array" ref="V3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,V$1)</f>
-        <v>3.654792709357077E-3</v>
+        <v>0</v>
       </c>
       <c r="W3" s="2" cm="1">
         <f t="array" ref="W3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,W$1)</f>
-        <v>3.6916218004952317E-3</v>
+        <v>0</v>
       </c>
       <c r="X3" s="2" cm="1">
         <f t="array" ref="X3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,X$1)</f>
-        <v>3.7284508916333725E-3</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="2" cm="1">
         <f t="array" ref="Y3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,Y$1)</f>
-        <v>3.7652799827715272E-3</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="2" cm="1">
         <f t="array" ref="Z3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,Z$1)</f>
-        <v>3.802109073909668E-3</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="2" cm="1">
         <f t="array" ref="AA3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,AA$1)</f>
-        <v>3.8389381650478088E-3</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="2" cm="1">
         <f t="array" ref="AB3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,AB$1)</f>
-        <v>3.8757672561859635E-3</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="2" cm="1">
         <f t="array" ref="AC3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,AC$1)</f>
-        <v>3.9125963473241043E-3</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="2" cm="1">
         <f t="array" ref="AD3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,AD$1)</f>
-        <v>3.949425438462259E-3</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="2" cm="1">
         <f t="array" ref="AE3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,AE$1)</f>
-        <v>3.9862545296003998E-3</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="2" cm="1">
         <f t="array" ref="AF3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,AF$1)</f>
-        <v>4.0230836207385406E-3</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="2" cm="1">
         <f t="array" ref="AG3">TREND('BAU Calculations'!$B117:$C117,'BAU Calculations'!$B$115:$C$115,AG$1)</f>
-        <v>4.0599127118766953E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>125</v>
       </c>
@@ -13892,7 +13748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>126</v>
       </c>
@@ -13993,7 +13849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>127</v>
       </c>
@@ -14094,7 +13950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>128</v>
       </c>
@@ -14195,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>129</v>
       </c>
@@ -14296,7 +14152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>118</v>
       </c>
@@ -14397,7 +14253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>130</v>
       </c>
@@ -14498,7 +14354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>119</v>
       </c>
@@ -14599,7 +14455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>120</v>
       </c>
@@ -14700,7 +14556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>121</v>
       </c>
@@ -14801,7 +14657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>131</v>
       </c>
@@ -14902,7 +14758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>122</v>
       </c>
@@ -15003,7 +14859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>123</v>
       </c>
@@ -15104,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>124</v>
       </c>
@@ -15218,14 +15074,16 @@
   </sheetPr>
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>115</v>
       </c>
@@ -15326,7 +15184,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -15427,7 +15285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -15528,7 +15386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -15629,7 +15487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>159</v>
       </c>
@@ -15730,7 +15588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>160</v>
       </c>
@@ -15831,7 +15689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -15932,7 +15790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>162</v>
       </c>
@@ -16033,7 +15891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>163</v>
       </c>
@@ -16134,273 +15992,273 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>164</v>
       </c>
       <c r="B10" cm="1">
         <f t="array" ref="B10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,B$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,C$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="D10" cm="1">
         <f t="array" ref="D10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,D$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="E10" cm="1">
         <f t="array" ref="E10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,E$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="F10" cm="1">
         <f t="array" ref="F10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,F$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="G10" cm="1">
         <f t="array" ref="G10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,G$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="H10" cm="1">
         <f t="array" ref="H10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,H$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,I$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="J10" cm="1">
         <f t="array" ref="J10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,J$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="K10" cm="1">
         <f t="array" ref="K10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,K$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="L10" cm="1">
         <f t="array" ref="L10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,L$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="M10" cm="1">
         <f t="array" ref="M10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,M$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="N10" cm="1">
         <f t="array" ref="N10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,N$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="O10" cm="1">
         <f t="array" ref="O10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,O$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="P10" cm="1">
         <f t="array" ref="P10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,P$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="Q10" cm="1">
         <f t="array" ref="Q10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,Q$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="R10" cm="1">
         <f t="array" ref="R10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,R$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="S10" cm="1">
         <f t="array" ref="S10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,S$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="T10" cm="1">
         <f t="array" ref="T10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,T$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="U10" cm="1">
         <f t="array" ref="U10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,U$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="V10" cm="1">
         <f t="array" ref="V10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,V$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="W10" cm="1">
         <f t="array" ref="W10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,W$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="X10" cm="1">
         <f t="array" ref="X10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,X$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="Y10" cm="1">
         <f t="array" ref="Y10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,Y$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="Z10" cm="1">
         <f t="array" ref="Z10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,Z$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="AA10" cm="1">
         <f t="array" ref="AA10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,AA$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="AB10" cm="1">
         <f t="array" ref="AB10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,AB$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="AC10" cm="1">
         <f t="array" ref="AC10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,AC$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="AD10" cm="1">
         <f t="array" ref="AD10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,AD$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="AE10" cm="1">
         <f t="array" ref="AE10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,AE$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="AF10" cm="1">
         <f t="array" ref="AF10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,AF$1)</f>
-        <v>3.7571423528284472E-3</v>
+        <v>0</v>
       </c>
       <c r="AG10" cm="1">
         <f t="array" ref="AG10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,AG$1)</f>
-        <v>3.7571423528284472E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>165</v>
       </c>
       <c r="B11" cm="1">
         <f t="array" ref="B11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,B$1)</f>
-        <v>9.0928820316609205E-3</v>
+        <v>0</v>
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,C$1)</f>
-        <v>1.1325413000276896E-2</v>
+        <v>0</v>
       </c>
       <c r="D11" cm="1">
         <f t="array" ref="D11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,D$1)</f>
-        <v>1.3557943968892872E-2</v>
+        <v>0</v>
       </c>
       <c r="E11" cm="1">
         <f t="array" ref="E11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,E$1)</f>
-        <v>1.5790474937508847E-2</v>
+        <v>0</v>
       </c>
       <c r="F11" cm="1">
         <f t="array" ref="F11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,F$1)</f>
-        <v>1.8023005906124823E-2</v>
+        <v>0</v>
       </c>
       <c r="G11" cm="1">
         <f t="array" ref="G11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,G$1)</f>
-        <v>2.0255536874740798E-2</v>
+        <v>0</v>
       </c>
       <c r="H11" cm="1">
         <f t="array" ref="H11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,H$1)</f>
-        <v>2.2488067843356774E-2</v>
+        <v>0</v>
       </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,I$1)</f>
-        <v>2.4720598811972749E-2</v>
+        <v>0</v>
       </c>
       <c r="J11" cm="1">
         <f t="array" ref="J11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,J$1)</f>
-        <v>2.6953129780588725E-2</v>
+        <v>0</v>
       </c>
       <c r="K11" cm="1">
         <f t="array" ref="K11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,K$1)</f>
-        <v>2.91856607492047E-2</v>
+        <v>0</v>
       </c>
       <c r="L11" cm="1">
         <f t="array" ref="L11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,L$1)</f>
-        <v>3.1418191717820676E-2</v>
+        <v>0</v>
       </c>
       <c r="M11" cm="1">
         <f t="array" ref="M11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,M$1)</f>
-        <v>3.3650722686436652E-2</v>
+        <v>0</v>
       </c>
       <c r="N11" cm="1">
         <f t="array" ref="N11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,N$1)</f>
-        <v>3.5883253655052627E-2</v>
+        <v>0</v>
       </c>
       <c r="O11" cm="1">
         <f t="array" ref="O11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,O$1)</f>
-        <v>3.8115784623668603E-2</v>
+        <v>0</v>
       </c>
       <c r="P11" cm="1">
         <f t="array" ref="P11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,P$1)</f>
-        <v>4.0348315592284578E-2</v>
+        <v>0</v>
       </c>
       <c r="Q11" cm="1">
         <f t="array" ref="Q11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,Q$1)</f>
-        <v>4.2580846560900554E-2</v>
+        <v>0</v>
       </c>
       <c r="R11" cm="1">
         <f t="array" ref="R11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,R$1)</f>
-        <v>4.4813377529516529E-2</v>
+        <v>0</v>
       </c>
       <c r="S11" cm="1">
         <f t="array" ref="S11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,S$1)</f>
-        <v>4.7045908498132505E-2</v>
+        <v>0</v>
       </c>
       <c r="T11" cm="1">
         <f t="array" ref="T11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,T$1)</f>
-        <v>4.927843946674848E-2</v>
+        <v>0</v>
       </c>
       <c r="U11" cm="1">
         <f t="array" ref="U11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,U$1)</f>
-        <v>5.1510970435364456E-2</v>
+        <v>0</v>
       </c>
       <c r="V11" cm="1">
         <f t="array" ref="V11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,V$1)</f>
-        <v>5.3743501403980432E-2</v>
+        <v>0</v>
       </c>
       <c r="W11" cm="1">
         <f t="array" ref="W11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,W$1)</f>
-        <v>5.5976032372596407E-2</v>
+        <v>0</v>
       </c>
       <c r="X11" cm="1">
         <f t="array" ref="X11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,X$1)</f>
-        <v>5.8208563341212383E-2</v>
+        <v>0</v>
       </c>
       <c r="Y11" cm="1">
         <f t="array" ref="Y11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,Y$1)</f>
-        <v>6.0441094309828358E-2</v>
+        <v>0</v>
       </c>
       <c r="Z11" cm="1">
         <f t="array" ref="Z11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,Z$1)</f>
-        <v>6.2673625278444334E-2</v>
+        <v>0</v>
       </c>
       <c r="AA11" cm="1">
         <f t="array" ref="AA11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,AA$1)</f>
-        <v>6.4906156247060309E-2</v>
+        <v>0</v>
       </c>
       <c r="AB11" cm="1">
         <f t="array" ref="AB11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,AB$1)</f>
-        <v>6.7138687215676285E-2</v>
+        <v>0</v>
       </c>
       <c r="AC11" cm="1">
         <f t="array" ref="AC11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,AC$1)</f>
-        <v>6.937121818429226E-2</v>
+        <v>0</v>
       </c>
       <c r="AD11" cm="1">
         <f t="array" ref="AD11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,AD$1)</f>
-        <v>7.1603749152908236E-2</v>
+        <v>0</v>
       </c>
       <c r="AE11" cm="1">
         <f t="array" ref="AE11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,AE$1)</f>
-        <v>7.3836280121524211E-2</v>
+        <v>0</v>
       </c>
       <c r="AF11" cm="1">
         <f t="array" ref="AF11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,AF$1)</f>
-        <v>7.6068811090140187E-2</v>
+        <v>0</v>
       </c>
       <c r="AG11" cm="1">
         <f t="array" ref="AG11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,AG$1)</f>
-        <v>7.8301342058756163E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>166</v>
       </c>
@@ -16501,7 +16359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -16602,7 +16460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>168</v>
       </c>
@@ -16703,7 +16561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>169</v>
       </c>
@@ -16804,7 +16662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>170</v>
       </c>
@@ -16905,7 +16763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>171</v>
       </c>
@@ -17006,7 +16864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>172</v>
       </c>
@@ -17107,7 +16965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>173</v>
       </c>
@@ -17208,7 +17066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>174</v>
       </c>
@@ -17309,7 +17167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>175</v>
       </c>
@@ -17410,7 +17268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -17511,7 +17369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>177</v>
       </c>
@@ -17612,140 +17470,140 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>178</v>
       </c>
       <c r="B24" cm="1">
         <f t="array" ref="B24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,B$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="C24" cm="1">
         <f t="array" ref="C24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,C$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="D24" cm="1">
         <f t="array" ref="D24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,D$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="E24" cm="1">
         <f t="array" ref="E24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,E$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="F24" cm="1">
         <f t="array" ref="F24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,F$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="G24" cm="1">
         <f t="array" ref="G24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,G$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="H24" cm="1">
         <f t="array" ref="H24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,H$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,I$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="J24" cm="1">
         <f t="array" ref="J24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,J$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="K24" cm="1">
         <f t="array" ref="K24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,K$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="L24" cm="1">
         <f t="array" ref="L24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,L$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="M24" cm="1">
         <f t="array" ref="M24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,M$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="N24" cm="1">
         <f t="array" ref="N24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,N$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="O24" cm="1">
         <f t="array" ref="O24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,O$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="P24" cm="1">
         <f t="array" ref="P24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,P$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="Q24" cm="1">
         <f t="array" ref="Q24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,Q$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="R24" cm="1">
         <f t="array" ref="R24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,R$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="S24" cm="1">
         <f t="array" ref="S24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,S$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="T24" cm="1">
         <f t="array" ref="T24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,T$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="U24" cm="1">
         <f t="array" ref="U24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,U$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="V24" cm="1">
         <f t="array" ref="V24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,V$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="W24" cm="1">
         <f t="array" ref="W24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,W$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="X24" cm="1">
         <f t="array" ref="X24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,X$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="Y24" cm="1">
         <f t="array" ref="Y24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,Y$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="Z24" cm="1">
         <f t="array" ref="Z24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,Z$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="AA24" cm="1">
         <f t="array" ref="AA24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,AA$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="AB24" cm="1">
         <f t="array" ref="AB24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,AB$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="AC24" cm="1">
         <f t="array" ref="AC24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,AC$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="AD24" cm="1">
         <f t="array" ref="AD24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,AD$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="AE24" cm="1">
         <f t="array" ref="AE24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,AE$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="AF24" cm="1">
         <f t="array" ref="AF24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,AF$1)</f>
-        <v>5.6922487755766443E-2</v>
+        <v>0</v>
       </c>
       <c r="AG24" cm="1">
         <f t="array" ref="AG24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,AG$1)</f>
-        <v>5.6922487755766443E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -17846,7 +17704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>180</v>
       </c>

--- a/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
+++ b/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/zzz_ccs/BFoCPAbS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-mexico\InputData\ccs\BFoCPAbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB034F63-3815-6D4B-A3A8-38504CE1DA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752E5E80-4CF4-45CA-9E32-743365988702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="33360" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Global CCS Database" sheetId="13" r:id="rId2"/>
     <sheet name="BAU Calculations" sheetId="14" r:id="rId3"/>
     <sheet name="BFoCPAbS-electricity" sheetId="15" r:id="rId4"/>
-    <sheet name="BFoCPAbS-industry" sheetId="16" r:id="rId5"/>
+    <sheet name="BFoCPAbS-industry-energyEmis" sheetId="16" r:id="rId5"/>
+    <sheet name="BFoCPAbS-industry-processEmis" sheetId="17" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Global CCS Database'!$A$7:$K$36</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="186">
   <si>
     <t>Source:</t>
   </si>
@@ -793,7 +794,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -816,7 +817,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -872,7 +873,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2147,7 +2148,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2086371983"/>
@@ -2203,7 +2204,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2095671583"/>
@@ -2242,7 +2243,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2283,7 +2284,7 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2297,7 +2298,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2359,7 +2360,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3667,7 +3668,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1719908479"/>
@@ -3726,7 +3727,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2086375631"/>
@@ -3768,7 +3769,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3805,7 +3806,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3819,7 +3820,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3881,7 +3882,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5189,7 +5190,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1791667823"/>
@@ -5248,7 +5249,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1947137231"/>
@@ -5290,7 +5291,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5327,7 +5328,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7446,20 +7447,20 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="103.5" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="103.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7467,50 +7468,50 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="31">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>183</v>
       </c>
@@ -7519,7 +7520,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>184</v>
       </c>
@@ -7528,26 +7529,26 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
@@ -7566,46 +7567,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="86.5" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="25.5" style="9" customWidth="1"/>
-    <col min="11" max="11" width="37.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="86.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -7640,7 +7641,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
@@ -7673,7 +7674,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
@@ -7709,7 +7710,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
@@ -7742,7 +7743,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>31</v>
       </c>
@@ -7775,7 +7776,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -7811,7 +7812,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>36</v>
       </c>
@@ -7844,7 +7845,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
@@ -7876,7 +7877,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>43</v>
       </c>
@@ -7912,7 +7913,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
@@ -7944,7 +7945,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>50</v>
       </c>
@@ -7977,7 +7978,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>52</v>
       </c>
@@ -8013,7 +8014,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>54</v>
       </c>
@@ -8046,7 +8047,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>57</v>
       </c>
@@ -8079,7 +8080,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>59</v>
       </c>
@@ -8113,7 +8114,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>61</v>
       </c>
@@ -8146,7 +8147,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>63</v>
       </c>
@@ -8179,7 +8180,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>65</v>
       </c>
@@ -8213,7 +8214,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>67</v>
       </c>
@@ -8246,7 +8247,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>70</v>
       </c>
@@ -8278,7 +8279,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>74</v>
       </c>
@@ -8311,7 +8312,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>76</v>
       </c>
@@ -8344,7 +8345,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>78</v>
       </c>
@@ -8376,7 +8377,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>81</v>
       </c>
@@ -8410,7 +8411,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>83</v>
       </c>
@@ -8443,7 +8444,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>85</v>
       </c>
@@ -8479,7 +8480,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>88</v>
       </c>
@@ -8512,7 +8513,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>90</v>
       </c>
@@ -8543,7 +8544,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>92</v>
       </c>
@@ -8576,7 +8577,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>94</v>
       </c>
@@ -8624,13 +8625,13 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
@@ -8668,7 +8669,7 @@
       <c r="AG1" s="7"/>
       <c r="AH1" s="7"/>
     </row>
-    <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="33">
         <v>2018</v>
@@ -8770,7 +8771,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>116</v>
       </c>
@@ -8907,7 +8908,7 @@
         <v>6400000</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>117</v>
       </c>
@@ -9044,7 +9045,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>164</v>
       </c>
@@ -9181,7 +9182,7 @@
         <v>1490000</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>165</v>
       </c>
@@ -9318,7 +9319,7 @@
         <v>7575000</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>178</v>
       </c>
@@ -9455,66 +9456,66 @@
         <v>23138095.238095239</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
     </row>
-    <row r="17" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
     </row>
-    <row r="18" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
     </row>
-    <row r="27" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="33">
         <v>2018</v>
@@ -9616,7 +9617,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="33" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>116</v>
       </c>
@@ -9720,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>117</v>
       </c>
@@ -9824,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>164</v>
       </c>
@@ -9928,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>165</v>
       </c>
@@ -10032,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>178</v>
       </c>
@@ -10136,55 +10137,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
     </row>
-    <row r="39" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
     </row>
-    <row r="40" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
     </row>
-    <row r="41" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
     </row>
-    <row r="42" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
     </row>
-    <row r="43" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
     </row>
-    <row r="44" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
     </row>
-    <row r="45" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
     </row>
-    <row r="46" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
     </row>
-    <row r="47" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
     </row>
-    <row r="48" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
     </row>
-    <row r="49" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
     </row>
-    <row r="50" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
     </row>
-    <row r="51" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
     </row>
-    <row r="52" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
     </row>
-    <row r="53" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>149</v>
       </c>
@@ -10222,12 +10223,12 @@
       <c r="AG55" s="7"/>
       <c r="AH55" s="7"/>
     </row>
-    <row r="56" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>100</v>
       </c>
@@ -10328,7 +10329,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="58" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>133</v>
       </c>
@@ -10429,7 +10430,7 @@
         <v>957155000000000</v>
       </c>
     </row>
-    <row r="59" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>134</v>
       </c>
@@ -10530,7 +10531,7 @@
         <v>344835000000000</v>
       </c>
     </row>
-    <row r="60" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>135</v>
       </c>
@@ -10631,7 +10632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>136</v>
       </c>
@@ -10732,7 +10733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>137</v>
       </c>
@@ -10833,7 +10834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>138</v>
       </c>
@@ -10934,7 +10935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>139</v>
       </c>
@@ -11035,7 +11036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>140</v>
       </c>
@@ -11136,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>141</v>
       </c>
@@ -11237,7 +11238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>142</v>
       </c>
@@ -11338,7 +11339,7 @@
         <v>11286300000000</v>
       </c>
     </row>
-    <row r="68" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>143</v>
       </c>
@@ -11439,7 +11440,7 @@
         <v>99792600000000</v>
       </c>
     </row>
-    <row r="69" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>144</v>
       </c>
@@ -11540,7 +11541,7 @@
         <v>43507100000000</v>
       </c>
     </row>
-    <row r="70" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>145</v>
       </c>
@@ -11641,7 +11642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>146</v>
       </c>
@@ -11742,7 +11743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>147</v>
       </c>
@@ -11843,7 +11844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>148</v>
       </c>
@@ -11944,7 +11945,7 @@
         <v>24454600000000</v>
       </c>
     </row>
-    <row r="74" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="26"/>
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
@@ -11978,12 +11979,12 @@
       <c r="AF74" s="26"/>
       <c r="AG74" s="26"/>
     </row>
-    <row r="75" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>100</v>
       </c>
@@ -12084,7 +12085,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="77" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>150</v>
       </c>
@@ -12185,7 +12186,7 @@
         <v>455116000000000</v>
       </c>
     </row>
-    <row r="78" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>151</v>
       </c>
@@ -12286,7 +12287,7 @@
         <v>400057000000000</v>
       </c>
     </row>
-    <row r="80" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>102</v>
       </c>
@@ -12324,7 +12325,7 @@
       <c r="AG80" s="7"/>
       <c r="AH80" s="7"/>
     </row>
-    <row r="81" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
       <c r="B81">
         <v>2019</v>
@@ -12423,7 +12424,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="82" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
         <v>116</v>
       </c>
@@ -12556,7 +12557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
         <v>117</v>
       </c>
@@ -12689,7 +12690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="28" t="s">
         <v>164</v>
       </c>
@@ -12822,7 +12823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="28" t="s">
         <v>165</v>
       </c>
@@ -12955,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
         <v>178</v>
       </c>
@@ -13088,100 +13089,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
     </row>
-    <row r="88" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="20"/>
     </row>
-    <row r="89" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="20"/>
     </row>
-    <row r="90" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="20"/>
     </row>
-    <row r="91" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
     </row>
-    <row r="92" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
     </row>
-    <row r="93" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
     </row>
-    <row r="94" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
     </row>
-    <row r="95" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
     </row>
-    <row r="96" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
     </row>
-    <row r="97" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="20"/>
     </row>
-    <row r="98" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="20"/>
     </row>
-    <row r="99" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="20"/>
     </row>
-    <row r="100" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="20"/>
     </row>
-    <row r="101" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="20"/>
     </row>
-    <row r="102" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="20"/>
     </row>
-    <row r="103" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="20"/>
     </row>
-    <row r="104" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="20"/>
     </row>
-    <row r="105" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="20"/>
     </row>
-    <row r="106" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="20"/>
     </row>
-    <row r="107" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="20"/>
     </row>
-    <row r="108" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="20"/>
     </row>
-    <row r="109" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>2019</v>
       </c>
@@ -13189,7 +13190,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="27" t="s">
         <v>116</v>
       </c>
@@ -13202,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
         <v>117</v>
       </c>
@@ -13215,7 +13216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="28" t="s">
         <v>164</v>
       </c>
@@ -13231,7 +13232,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="28" t="s">
         <v>165</v>
       </c>
@@ -13244,7 +13245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="28" t="s">
         <v>178</v>
       </c>
@@ -13275,12 +13276,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.83203125" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>115</v>
       </c>
@@ -13381,7 +13382,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>116</v>
       </c>
@@ -13514,7 +13515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>117</v>
       </c>
@@ -13647,7 +13648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>125</v>
       </c>
@@ -13748,7 +13749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>126</v>
       </c>
@@ -13849,7 +13850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>127</v>
       </c>
@@ -13950,7 +13951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>128</v>
       </c>
@@ -14051,7 +14052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>129</v>
       </c>
@@ -14152,7 +14153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>118</v>
       </c>
@@ -14253,7 +14254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>130</v>
       </c>
@@ -14354,7 +14355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>119</v>
       </c>
@@ -14455,7 +14456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>120</v>
       </c>
@@ -14556,7 +14557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>121</v>
       </c>
@@ -14657,7 +14658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>131</v>
       </c>
@@ -14758,7 +14759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>122</v>
       </c>
@@ -14859,7 +14860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>123</v>
       </c>
@@ -14960,7 +14961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>124</v>
       </c>
@@ -15078,12 +15079,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.83203125" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>115</v>
       </c>
@@ -15184,7 +15185,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -15285,7 +15286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -15386,7 +15387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -15487,7 +15488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>159</v>
       </c>
@@ -15588,7 +15589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>160</v>
       </c>
@@ -15689,7 +15690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -15790,7 +15791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>162</v>
       </c>
@@ -15891,7 +15892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>163</v>
       </c>
@@ -15992,7 +15993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -16125,7 +16126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>165</v>
       </c>
@@ -16258,7 +16259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>166</v>
       </c>
@@ -16359,7 +16360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -16460,7 +16461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>168</v>
       </c>
@@ -16561,7 +16562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>169</v>
       </c>
@@ -16662,7 +16663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>170</v>
       </c>
@@ -16763,7 +16764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>171</v>
       </c>
@@ -16864,7 +16865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>172</v>
       </c>
@@ -16965,7 +16966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>173</v>
       </c>
@@ -17066,7 +17067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>174</v>
       </c>
@@ -17167,7 +17168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>175</v>
       </c>
@@ -17268,7 +17269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -17369,7 +17370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>177</v>
       </c>
@@ -17470,7 +17471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>178</v>
       </c>
@@ -17603,7 +17604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -17704,7 +17705,2751 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F3D46E-7449-4A44-9543-8C97370F914F}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AG26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" cm="1">
+        <f t="array" ref="B10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" cm="1">
+        <f t="array" ref="C10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,C$1)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" cm="1">
+        <f t="array" ref="D10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,D$1)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" cm="1">
+        <f t="array" ref="E10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,G$1)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" cm="1">
+        <f t="array" ref="H10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,H$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" cm="1">
+        <f t="array" ref="I10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,I$1)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,J$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" cm="1">
+        <f t="array" ref="K10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,K$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" cm="1">
+        <f t="array" ref="L10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,L$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" cm="1">
+        <f t="array" ref="M10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,M$1)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" cm="1">
+        <f t="array" ref="N10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,N$1)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" cm="1">
+        <f t="array" ref="O10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,O$1)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" cm="1">
+        <f t="array" ref="P10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,P$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" cm="1">
+        <f t="array" ref="Q10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,Q$1)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" cm="1">
+        <f t="array" ref="R10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,R$1)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" cm="1">
+        <f t="array" ref="S10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,S$1)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" cm="1">
+        <f t="array" ref="T10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,T$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" cm="1">
+        <f t="array" ref="U10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,U$1)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" cm="1">
+        <f t="array" ref="V10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,V$1)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" cm="1">
+        <f t="array" ref="W10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,W$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X10" cm="1">
+        <f t="array" ref="X10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,X$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" cm="1">
+        <f t="array" ref="Y10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,Y$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" cm="1">
+        <f t="array" ref="Z10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,Z$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" cm="1">
+        <f t="array" ref="AA10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,AA$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" cm="1">
+        <f t="array" ref="AB10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,AB$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" cm="1">
+        <f t="array" ref="AC10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,AC$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" cm="1">
+        <f t="array" ref="AD10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,AD$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" cm="1">
+        <f t="array" ref="AE10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,AE$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" cm="1">
+        <f t="array" ref="AF10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,AF$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" cm="1">
+        <f t="array" ref="AG10">TREND('BAU Calculations'!$B118:$C118,'BAU Calculations'!$B$115:$C$115,AG$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" cm="1">
+        <f t="array" ref="B11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" cm="1">
+        <f t="array" ref="C11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,C$1)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" cm="1">
+        <f t="array" ref="D11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,D$1)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" cm="1">
+        <f t="array" ref="E11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,G$1)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" cm="1">
+        <f t="array" ref="H11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,H$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" cm="1">
+        <f t="array" ref="I11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,I$1)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" cm="1">
+        <f t="array" ref="J11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,J$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" cm="1">
+        <f t="array" ref="K11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,K$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" cm="1">
+        <f t="array" ref="L11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,L$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" cm="1">
+        <f t="array" ref="M11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,M$1)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" cm="1">
+        <f t="array" ref="N11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,N$1)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" cm="1">
+        <f t="array" ref="O11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,O$1)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" cm="1">
+        <f t="array" ref="P11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,P$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" cm="1">
+        <f t="array" ref="Q11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,Q$1)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" cm="1">
+        <f t="array" ref="R11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,R$1)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" cm="1">
+        <f t="array" ref="S11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,S$1)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" cm="1">
+        <f t="array" ref="T11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,T$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" cm="1">
+        <f t="array" ref="U11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,U$1)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" cm="1">
+        <f t="array" ref="V11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,V$1)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" cm="1">
+        <f t="array" ref="W11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,W$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X11" cm="1">
+        <f t="array" ref="X11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,X$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" cm="1">
+        <f t="array" ref="Y11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,Y$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" cm="1">
+        <f t="array" ref="Z11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,Z$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" cm="1">
+        <f t="array" ref="AA11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,AA$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" cm="1">
+        <f t="array" ref="AB11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,AB$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" cm="1">
+        <f t="array" ref="AC11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,AC$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" cm="1">
+        <f t="array" ref="AD11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,AD$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" cm="1">
+        <f t="array" ref="AE11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,AE$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" cm="1">
+        <f t="array" ref="AF11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,AF$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" cm="1">
+        <f t="array" ref="AG11">TREND('BAU Calculations'!$B119:$C119,'BAU Calculations'!$B$115:$C$115,AG$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" cm="1">
+        <f t="array" ref="B24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C24" cm="1">
+        <f t="array" ref="C24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,C$1)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" cm="1">
+        <f t="array" ref="D24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,D$1)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" cm="1">
+        <f t="array" ref="E24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,G$1)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" cm="1">
+        <f t="array" ref="H24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,H$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" cm="1">
+        <f t="array" ref="I24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,I$1)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" cm="1">
+        <f t="array" ref="J24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,J$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" cm="1">
+        <f t="array" ref="K24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,K$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" cm="1">
+        <f t="array" ref="L24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,L$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" cm="1">
+        <f t="array" ref="M24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,M$1)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" cm="1">
+        <f t="array" ref="N24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,N$1)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" cm="1">
+        <f t="array" ref="O24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,O$1)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" cm="1">
+        <f t="array" ref="P24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,P$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" cm="1">
+        <f t="array" ref="Q24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,Q$1)</f>
+        <v>0</v>
+      </c>
+      <c r="R24" cm="1">
+        <f t="array" ref="R24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,R$1)</f>
+        <v>0</v>
+      </c>
+      <c r="S24" cm="1">
+        <f t="array" ref="S24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,S$1)</f>
+        <v>0</v>
+      </c>
+      <c r="T24" cm="1">
+        <f t="array" ref="T24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,T$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U24" cm="1">
+        <f t="array" ref="U24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,U$1)</f>
+        <v>0</v>
+      </c>
+      <c r="V24" cm="1">
+        <f t="array" ref="V24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,V$1)</f>
+        <v>0</v>
+      </c>
+      <c r="W24" cm="1">
+        <f t="array" ref="W24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,W$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X24" cm="1">
+        <f t="array" ref="X24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,X$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" cm="1">
+        <f t="array" ref="Y24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,Y$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" cm="1">
+        <f t="array" ref="Z24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,Z$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" cm="1">
+        <f t="array" ref="AA24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,AA$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB24" cm="1">
+        <f t="array" ref="AB24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,AB$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC24" cm="1">
+        <f t="array" ref="AC24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,AC$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD24" cm="1">
+        <f t="array" ref="AD24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,AD$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE24" cm="1">
+        <f t="array" ref="AE24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,AE$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF24" cm="1">
+        <f t="array" ref="AF24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,AF$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG24" cm="1">
+        <f t="array" ref="AG24">TREND('BAU Calculations'!$B120:$C120,'BAU Calculations'!$B$115:$C$115,AG$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>180</v>
       </c>
